--- a/Team-Data/2012-13/1-30-2012-13.xlsx
+++ b/Team-Data/2012-13/1-30-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.578</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L2" t="n">
         <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N2" t="n">
         <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="P2" t="n">
         <v>19.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.698</v>
+        <v>0.7</v>
       </c>
       <c r="R2" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>30.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.1</v>
@@ -726,7 +793,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
@@ -738,19 +805,19 @@
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC2" t="n">
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -762,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -789,25 +856,25 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
         <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.489</v>
+        <v>0.477</v>
       </c>
       <c r="H3" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I3" t="n">
         <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
@@ -878,19 +945,19 @@
         <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O3" t="n">
         <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
         <v>0.782</v>
       </c>
       <c r="R3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S3" t="n">
         <v>31</v>
@@ -899,10 +966,10 @@
         <v>39.6</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V3" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
         <v>8.699999999999999</v>
@@ -911,7 +978,7 @@
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
         <v>21.6</v>
@@ -920,19 +987,19 @@
         <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -941,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>28</v>
@@ -962,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
         <v>7</v>
@@ -971,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -980,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -1001,7 +1068,7 @@
         <v>20</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.587</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.443</v>
@@ -1057,10 +1124,10 @@
         <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O4" t="n">
         <v>18.1</v>
@@ -1075,16 +1142,16 @@
         <v>12.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U4" t="n">
         <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
@@ -1096,31 +1163,31 @@
         <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,16 +1205,16 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>9</v>
@@ -1156,13 +1223,13 @@
         <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1171,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1183,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -1212,91 +1279,91 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.244</v>
+        <v>0.25</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.35</v>
+        <v>0.354</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T5" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U5" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA5" t="n">
         <v>21.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.4</v>
+        <v>-8</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1335,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT5" t="n">
         <v>22</v>
@@ -1344,25 +1411,25 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.622</v>
+        <v>0.614</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
         <v>4.8</v>
@@ -1424,34 +1491,34 @@
         <v>13.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O6" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R6" t="n">
         <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
         <v>44</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V6" t="n">
         <v>14.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
@@ -1460,31 +1527,31 @@
         <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA6" t="n">
         <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1493,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,10 +1569,10 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
@@ -1520,34 +1587,34 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
         <v>25</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1693,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>6</v>
@@ -1705,10 +1772,10 @@
         <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1863,16 +1930,16 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1893,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
         <v>17</v>
@@ -1902,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>22</v>
       </c>
       <c r="BB8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.617</v>
+        <v>0.609</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L9" t="n">
         <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="S9" t="n">
         <v>31.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U9" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V9" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W9" t="n">
         <v>8.5</v>
@@ -2003,25 +2070,25 @@
         <v>6.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.8</v>
+        <v>103.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
         <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>9</v>
@@ -2033,7 +2100,7 @@
         <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2042,16 +2109,16 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>4</v>
@@ -2066,10 +2133,10 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
         <v>2</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>3</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2078,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.37</v>
+        <v>0.378</v>
       </c>
       <c r="H10" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.368</v>
+        <v>0.372</v>
       </c>
       <c r="O10" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.702</v>
+        <v>0.708</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
         <v>43.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V10" t="n">
         <v>15.2</v>
@@ -2182,25 +2249,25 @@
         <v>6.4</v>
       </c>
       <c r="X10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z10" t="n">
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,16 +2279,16 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2251,31 +2318,31 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB10" t="n">
         <v>22</v>
       </c>
-      <c r="AW10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>23</v>
-      </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2409,16 +2476,16 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>24</v>
@@ -2442,7 +2509,7 @@
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
@@ -2451,13 +2518,13 @@
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
         <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.521</v>
+        <v>0.532</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,28 +2571,28 @@
         <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.456</v>
       </c>
       <c r="L12" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M12" t="n">
         <v>28.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O12" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R12" t="n">
         <v>10.8</v>
@@ -2540,10 +2607,10 @@
         <v>22.7</v>
       </c>
       <c r="V12" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
@@ -2552,25 +2619,25 @@
         <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2594,13 +2661,13 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>14</v>
@@ -2609,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
         <v>10</v>
@@ -2621,25 +2688,25 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA12" t="n">
         <v>17</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.587</v>
+        <v>0.578</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J13" t="n">
         <v>81.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L13" t="n">
         <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P13" t="n">
         <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.743</v>
+        <v>0.739</v>
       </c>
       <c r="R13" t="n">
         <v>13.1</v>
       </c>
       <c r="S13" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T13" t="n">
-        <v>45.8</v>
+        <v>45.6</v>
       </c>
       <c r="U13" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V13" t="n">
         <v>15.2</v>
@@ -2728,43 +2795,43 @@
         <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.8</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2773,13 +2840,13 @@
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
         <v>18</v>
@@ -2791,16 +2858,16 @@
         <v>5</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2809,19 +2876,19 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.723</v>
+        <v>0.717</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.707</v>
+        <v>0.71</v>
       </c>
       <c r="R14" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
         <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
@@ -2910,19 +2977,19 @@
         <v>10.1</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC14" t="n">
         <v>7.7</v>
@@ -2931,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2946,25 +3013,25 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN14" t="n">
         <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2976,13 +3043,13 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.435</v>
+        <v>0.444</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3053,7 +3120,7 @@
         <v>81.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L15" t="n">
         <v>8.800000000000001</v>
@@ -3062,16 +3129,16 @@
         <v>24.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P15" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>12.1</v>
@@ -3086,7 +3153,7 @@
         <v>22.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
@@ -3095,22 +3162,22 @@
         <v>5.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.2</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3131,7 +3198,7 @@
         <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3143,7 +3210,7 @@
         <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3161,19 +3228,19 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3358,13 +3425,13 @@
         <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -3396,61 +3463,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
         <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J17" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.489</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M17" t="n">
         <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.386</v>
+        <v>0.382</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T17" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U17" t="n">
         <v>22.4</v>
       </c>
       <c r="V17" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W17" t="n">
         <v>8.300000000000001</v>
@@ -3459,25 +3526,25 @@
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
         <v>102.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3492,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3504,10 +3571,10 @@
         <v>9</v>
       </c>
       <c r="AN17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3519,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.545</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3596,25 +3663,25 @@
         <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q18" t="n">
         <v>0.738</v>
@@ -3623,19 +3690,19 @@
         <v>13.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U18" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X18" t="n">
         <v>7.5</v>
@@ -3647,22 +3714,22 @@
         <v>19.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3686,13 +3753,13 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
@@ -3701,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT18" t="n">
         <v>7</v>
@@ -3710,16 +3777,16 @@
         <v>14</v>
       </c>
       <c r="AV18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>0.405</v>
+        <v>0.415</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.431</v>
@@ -3787,10 +3854,10 @@
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.295</v>
+        <v>0.296</v>
       </c>
       <c r="O19" t="n">
         <v>18.7</v>
@@ -3799,43 +3866,43 @@
         <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R19" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="S19" t="n">
         <v>30.7</v>
       </c>
       <c r="T19" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U19" t="n">
         <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X19" t="n">
         <v>5.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
@@ -3847,7 +3914,7 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3871,10 +3938,10 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
@@ -3883,10 +3950,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
@@ -3898,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -3942,34 +4009,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J20" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N20" t="n">
         <v>0.374</v>
@@ -3978,16 +4045,16 @@
         <v>14.6</v>
       </c>
       <c r="P20" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.773</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
         <v>41.6</v>
@@ -3996,46 +4063,46 @@
         <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y20" t="n">
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC20" t="n">
         <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4044,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM20" t="n">
         <v>19</v>
@@ -4074,19 +4141,19 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -4124,88 +4191,88 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.651</v>
+        <v>0.643</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J21" t="n">
         <v>83</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="M21" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O21" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="P21" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V21" t="n">
         <v>11.3</v>
       </c>
       <c r="W21" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X21" t="n">
         <v>3.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z21" t="n">
         <v>19.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD21" t="n">
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4223,7 +4290,7 @@
         <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>21</v>
@@ -4253,13 +4320,13 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4274,7 +4341,7 @@
         <v>18</v>
       </c>
       <c r="BB21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,25 +4463,25 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>13</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,7 +4499,7 @@
         <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>19</v>
@@ -4459,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.311</v>
+        <v>0.318</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4506,19 +4573,19 @@
         <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O23" t="n">
         <v>12.6</v>
@@ -4527,34 +4594,34 @@
         <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.787</v>
+        <v>0.785</v>
       </c>
       <c r="R23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA23" t="n">
         <v>16.6</v>
@@ -4563,16 +4630,16 @@
         <v>95</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>27</v>
@@ -4581,10 +4648,10 @@
         <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
         <v>11</v>
@@ -4593,10 +4660,10 @@
         <v>16</v>
       </c>
       <c r="AM23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,13 +4672,13 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR23" t="n">
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
         <v>13</v>
@@ -4620,7 +4687,7 @@
         <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="n">
         <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.422</v>
+        <v>0.409</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,46 +4755,46 @@
         <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L24" t="n">
         <v>6.4</v>
       </c>
       <c r="M24" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O24" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="P24" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R24" t="n">
         <v>10.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
         <v>40.8</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V24" t="n">
         <v>12.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
@@ -4736,7 +4803,7 @@
         <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA24" t="n">
         <v>16.8</v>
@@ -4745,40 +4812,40 @@
         <v>93.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,13 +4866,13 @@
         <v>23</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
         <v>16</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
         <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.348</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4876,43 +4943,43 @@
         <v>0.445</v>
       </c>
       <c r="L25" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="N25" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="O25" t="n">
         <v>14.9</v>
       </c>
       <c r="P25" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S25" t="n">
         <v>29.3</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U25" t="n">
         <v>22.1</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W25" t="n">
         <v>7.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y25" t="n">
         <v>5.1</v>
@@ -4924,34 +4991,34 @@
         <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
@@ -4963,13 +5030,13 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>17</v>
@@ -4984,19 +5051,19 @@
         <v>17</v>
       </c>
       <c r="AV25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY25" t="n">
         <v>16</v>
       </c>
       <c r="AZ25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5005,7 +5072,7 @@
         <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO26" t="n">
         <v>17</v>
@@ -5166,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW26" t="n">
         <v>18</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -5216,31 +5283,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J27" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M27" t="n">
         <v>18.6</v>
@@ -5252,28 +5319,28 @@
         <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T27" t="n">
         <v>40.5</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X27" t="n">
         <v>4.6</v>
@@ -5282,16 +5349,16 @@
         <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.5</v>
+        <v>-6.3</v>
       </c>
       <c r="AD27" t="n">
         <v>3</v>
@@ -5315,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5324,10 +5391,10 @@
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5345,10 +5412,10 @@
         <v>24</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5360,13 +5427,13 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.771</v>
+        <v>0.766</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J28" t="n">
-        <v>81.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L28" t="n">
         <v>8.6</v>
       </c>
       <c r="M28" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.382</v>
+        <v>0.379</v>
       </c>
       <c r="O28" t="n">
         <v>16.3</v>
@@ -5437,7 +5504,7 @@
         <v>20.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R28" t="n">
         <v>8.1</v>
@@ -5446,16 +5513,16 @@
         <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
@@ -5467,13 +5534,13 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5491,10 +5558,10 @@
         <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5515,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5530,16 +5597,16 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
         <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J29" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L29" t="n">
         <v>7.6</v>
@@ -5610,7 +5677,7 @@
         <v>21.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O29" t="n">
         <v>17</v>
@@ -5619,46 +5686,46 @@
         <v>22</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>39.7</v>
       </c>
       <c r="U29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V29" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5673,13 +5740,13 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
         <v>10</v>
@@ -5688,10 +5755,10 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="n">
         <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>0.543</v>
+        <v>0.533</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,37 +5847,37 @@
         <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L30" t="n">
         <v>6.2</v>
       </c>
       <c r="M30" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U30" t="n">
         <v>22.9</v>
@@ -5831,19 +5898,19 @@
         <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5852,10 +5919,10 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI30" t="n">
         <v>16</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>17</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -5873,7 +5940,7 @@
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
@@ -5882,10 +5949,10 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
@@ -5894,7 +5961,7 @@
         <v>7</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>8</v>
@@ -5903,19 +5970,19 @@
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
         <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.25</v>
+        <v>0.256</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.422</v>
@@ -5971,37 +6038,37 @@
         <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N31" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O31" t="n">
         <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R31" t="n">
         <v>11.1</v>
       </c>
       <c r="S31" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T31" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U31" t="n">
         <v>21.5</v>
       </c>
       <c r="V31" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
@@ -6010,19 +6077,19 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6055,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6067,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
@@ -6079,19 +6146,19 @@
         <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
         <v>21</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-30-2012-13</t>
+          <t>2013-01-30</t>
         </is>
       </c>
     </row>
